--- a/Config/Excel/MusicData.xlsx
+++ b/Config/Excel/MusicData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\Jimmy.SpiderBeat\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F629003D-A18B-4728-A48B-44E4B582F930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914773A9-9936-4E16-B90B-5D5499D6EF06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2130" windowWidth="21600" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="1545" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="1" r:id="rId1"/>
@@ -20,119 +20,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>歌曲ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>歌曲名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MusicName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ThisIsWhatYouCameFor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>简单难度关卡文件路径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>EasyPath</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NormalPath</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CrazyPath</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通难度关卡文件路径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>疯狂难度关卡文件路径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SoneBeatsData/ThisIsWhatYouCameFor_Easy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SoneBeatsData/ThisIsWhatYouCameFor_Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SoneBeatsData/ThisIsWhatYouCameFor_Crazy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>歌曲封面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CoverPath</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MusicCover/ThisIsWhatYouCameFor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MusicCover/Rise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MusicCover/Escape</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Escape</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicCover/Maps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warriors</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicCover/Warriors</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Warriors_Easy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Maps_Easy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Maps_Normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Warriors_Normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Maps_Crazy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoneBeatsData/Warriors_Crazy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,17 +244,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,15 +811,21 @@
       <c r="A7" s="1">
         <v>1002</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -803,15 +843,21 @@
       <c r="A8" s="1">
         <v>1003</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1006,7 +1052,7 @@
       <c r="R17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
